--- a/src/main/resources/static/excel/洗标.xlsx
+++ b/src/main/resources/static/excel/洗标.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>图片</t>
+  </si>
   <si>
     <t>洗标编码</t>
   </si>
@@ -22,22 +25,13 @@
     <t>洗标</t>
   </si>
   <si>
-    <t>描述</t>
-  </si>
-  <si>
     <t>洗护类别</t>
   </si>
   <si>
-    <t>图片</t>
+    <t>温馨提示</t>
   </si>
   <si>
-    <t>可用的</t>
-  </si>
-  <si>
-    <t>语言</t>
-  </si>
-  <si>
-    <t>温馨提示</t>
+    <t/>
   </si>
   <si>
     <t>XB05</t>
@@ -46,20 +40,10 @@
     <t>常规梭织（含毛）</t>
   </si>
   <si>
-    <t>不可水洗
-不可漂白
-在阴凉处悬挂晾干
-熨斗底板最高温度110℃蒸汽熨烫可能造成不可回复的损伤
-使用四氯乙烯和符号F代表的所有溶剂的专业干洗缓和干洗</t>
-  </si>
-  <si>
     <t>特别说明</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>编码</t>
+    <t>名字，换行代表多个</t>
   </si>
 </sst>
 </file>
@@ -83,13 +67,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -700,7 +684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -711,13 +695,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -784,20 +765,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -810,8 +791,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2468880" y="182880"/>
-          <a:ext cx="914400" cy="133350"/>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="685800" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1081,68 +1062,49 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="5" max="5" width="13.712962962963" customWidth="1"/>
-    <col min="8" max="8" width="18.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="18.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="24" customHeight="1" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/excel/洗标.xlsx
+++ b/src/main/resources/static/excel/洗标.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="11325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>图片</t>
-  </si>
-  <si>
-    <t>洗标编码</t>
+    <t>编码</t>
   </si>
   <si>
     <t>洗标</t>
@@ -29,9 +26,6 @@
   </si>
   <si>
     <t>温馨提示</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>XB05</t>
@@ -56,19 +50,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -539,48 +527,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,111 +581,102 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -759,49 +741,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="190500"/>
-          <a:ext cx="685800" cy="133350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1062,54 +1001,47 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="5" max="5" width="18.5583333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="24" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>